--- a/data/processed/state_overviews/texas_overview.xlsx
+++ b/data/processed/state_overviews/texas_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>4750</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4,750</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Anderson County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Andrews County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Angelina County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>29</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Aransas County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>9</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Archer County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Armstrong County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Atascosa County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Austin County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>6</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Bandera County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>10</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Bastrop County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>18</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Baylor County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Bee County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>4</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Bell County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>53</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Bexar County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>357</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Blanco County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Bosque County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>3</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Bowie County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>17</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Brazoria County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>51</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Brazos County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>46</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Brewster County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>8</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Briscoe County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Brown County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>10</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Burleson County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>2</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Burnet County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>13</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Caldwell County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>5</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Calhoun County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>2</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Callahan County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>2</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Cameron County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>54</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Camp County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Carson County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Cass County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Castro County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>2</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Chambers County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>5</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Cherokee County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>4</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Childress County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Clay County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>2</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Coleman County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>2</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Collin County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>120</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Colorado County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>2</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Comal County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>41</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Comanche County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>3</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Concho County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>1</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Cooke County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>14</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Coryell County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>2</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Crosby County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Dallam County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>5</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Dallas County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>519</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Dawson County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>2</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>DeWitt County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>4</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Deaf Smith County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>3</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Denton County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>79</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Dimmit County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>4</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Donley County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>1</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Eastland County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>3</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Ector County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>22</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Edwards County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>1</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>El Paso County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>98</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Ellis County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>21</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Erath County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>7</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Fannin County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>3</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Fayette County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>10</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Fisher County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>2</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Floyd County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>4</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Foard County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>2</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Fort Bend County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>54</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>1</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Freestone County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>4</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,8 +2610,10 @@
           <t>Frio County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>2</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,8 +2642,10 @@
           <t>Gaines County</t>
         </is>
       </c>
-      <c r="B70">
-        <v>1</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,8 +2674,10 @@
           <t>Galveston County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>57</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2564,8 +2706,10 @@
           <t>Garza County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>3</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2594,8 +2738,10 @@
           <t>Gillespie County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>22</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2624,8 +2770,10 @@
           <t>Goliad County</t>
         </is>
       </c>
-      <c r="B74">
-        <v>3</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2654,8 +2802,10 @@
           <t>Gonzales County</t>
         </is>
       </c>
-      <c r="B75">
-        <v>1</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2684,8 +2834,10 @@
           <t>Gray County</t>
         </is>
       </c>
-      <c r="B76">
-        <v>6</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2714,8 +2866,10 @@
           <t>Grayson County</t>
         </is>
       </c>
-      <c r="B77">
-        <v>21</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2744,8 +2898,10 @@
           <t>Gregg County</t>
         </is>
       </c>
-      <c r="B78">
-        <v>36</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2774,8 +2930,10 @@
           <t>Grimes County</t>
         </is>
       </c>
-      <c r="B79">
-        <v>4</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2804,8 +2962,10 @@
           <t>Guadalupe County</t>
         </is>
       </c>
-      <c r="B80">
-        <v>19</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2834,8 +2994,10 @@
           <t>Hale County</t>
         </is>
       </c>
-      <c r="B81">
-        <v>11</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2864,8 +3026,10 @@
           <t>Hall County</t>
         </is>
       </c>
-      <c r="B82">
-        <v>1</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2894,8 +3058,10 @@
           <t>Hardin County</t>
         </is>
       </c>
-      <c r="B83">
-        <v>3</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2924,8 +3090,10 @@
           <t>Harris County</t>
         </is>
       </c>
-      <c r="B84">
-        <v>716</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2954,8 +3122,10 @@
           <t>Harrison County</t>
         </is>
       </c>
-      <c r="B85">
-        <v>11</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2984,8 +3154,10 @@
           <t>Hartley County</t>
         </is>
       </c>
-      <c r="B86">
-        <v>1</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3014,8 +3186,10 @@
           <t>Haskell County</t>
         </is>
       </c>
-      <c r="B87">
-        <v>2</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3044,8 +3218,10 @@
           <t>Hays County</t>
         </is>
       </c>
-      <c r="B88">
-        <v>37</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3074,8 +3250,10 @@
           <t>Hemphill County</t>
         </is>
       </c>
-      <c r="B89">
-        <v>4</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3104,8 +3282,10 @@
           <t>Henderson County</t>
         </is>
       </c>
-      <c r="B90">
-        <v>8</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3134,8 +3314,10 @@
           <t>Hidalgo County</t>
         </is>
       </c>
-      <c r="B91">
-        <v>69</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3164,8 +3346,10 @@
           <t>Hill County</t>
         </is>
       </c>
-      <c r="B92">
-        <v>3</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3194,8 +3378,10 @@
           <t>Hockley County</t>
         </is>
       </c>
-      <c r="B93">
-        <v>5</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3224,8 +3410,10 @@
           <t>Hood County</t>
         </is>
       </c>
-      <c r="B94">
-        <v>10</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3254,8 +3442,10 @@
           <t>Hopkins County</t>
         </is>
       </c>
-      <c r="B95">
-        <v>3</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3284,8 +3474,10 @@
           <t>Houston County</t>
         </is>
       </c>
-      <c r="B96">
-        <v>3</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3314,8 +3506,10 @@
           <t>Howard County</t>
         </is>
       </c>
-      <c r="B97">
-        <v>5</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3344,8 +3538,10 @@
           <t>Hunt County</t>
         </is>
       </c>
-      <c r="B98">
-        <v>13</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3374,8 +3570,10 @@
           <t>Hutchinson County</t>
         </is>
       </c>
-      <c r="B99">
-        <v>4</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3404,8 +3602,10 @@
           <t>Jack County</t>
         </is>
       </c>
-      <c r="B100">
-        <v>2</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3434,8 +3634,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B101">
-        <v>1</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3464,8 +3666,10 @@
           <t>Jasper County</t>
         </is>
       </c>
-      <c r="B102">
-        <v>3</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3494,8 +3698,10 @@
           <t>Jeff Davis County</t>
         </is>
       </c>
-      <c r="B103">
-        <v>1</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3524,8 +3730,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B104">
-        <v>58</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3554,8 +3762,10 @@
           <t>Jim Wells County</t>
         </is>
       </c>
-      <c r="B105">
-        <v>3</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3584,8 +3794,10 @@
           <t>Johnson County</t>
         </is>
       </c>
-      <c r="B106">
-        <v>23</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3614,8 +3826,10 @@
           <t>Karnes County</t>
         </is>
       </c>
-      <c r="B107">
-        <v>2</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3644,8 +3858,10 @@
           <t>Kaufman County</t>
         </is>
       </c>
-      <c r="B108">
-        <v>14</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3674,8 +3890,10 @@
           <t>Kendall County</t>
         </is>
       </c>
-      <c r="B109">
-        <v>16</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3704,8 +3922,10 @@
           <t>Kerr County</t>
         </is>
       </c>
-      <c r="B110">
-        <v>23</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3734,8 +3954,10 @@
           <t>Kimble County</t>
         </is>
       </c>
-      <c r="B111">
-        <v>1</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3764,8 +3986,10 @@
           <t>Kleberg County</t>
         </is>
       </c>
-      <c r="B112">
-        <v>4</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3794,8 +4018,10 @@
           <t>La Salle County</t>
         </is>
       </c>
-      <c r="B113">
-        <v>1</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3824,8 +4050,10 @@
           <t>Lamar County</t>
         </is>
       </c>
-      <c r="B114">
-        <v>10</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3854,8 +4082,10 @@
           <t>Lamb County</t>
         </is>
       </c>
-      <c r="B115">
-        <v>2</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3884,8 +4114,10 @@
           <t>Lampasas County</t>
         </is>
       </c>
-      <c r="B116">
-        <v>1</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3914,8 +4146,10 @@
           <t>Lavaca County</t>
         </is>
       </c>
-      <c r="B117">
-        <v>3</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3944,8 +4178,10 @@
           <t>Lee County</t>
         </is>
       </c>
-      <c r="B118">
-        <v>7</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3974,8 +4210,10 @@
           <t>Leon County</t>
         </is>
       </c>
-      <c r="B119">
-        <v>2</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4004,8 +4242,10 @@
           <t>Liberty County</t>
         </is>
       </c>
-      <c r="B120">
-        <v>6</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4034,8 +4274,10 @@
           <t>Limestone County</t>
         </is>
       </c>
-      <c r="B121">
-        <v>1</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4064,8 +4306,10 @@
           <t>Llano County</t>
         </is>
       </c>
-      <c r="B122">
-        <v>3</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4094,8 +4338,10 @@
           <t>Lubbock County</t>
         </is>
       </c>
-      <c r="B123">
-        <v>69</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4124,8 +4370,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B124">
-        <v>2</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4154,8 +4402,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B125">
-        <v>3</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4184,8 +4434,10 @@
           <t>Martin County</t>
         </is>
       </c>
-      <c r="B126">
-        <v>2</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4214,8 +4466,10 @@
           <t>Mason County</t>
         </is>
       </c>
-      <c r="B127">
-        <v>1</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4244,8 +4498,10 @@
           <t>Matagorda County</t>
         </is>
       </c>
-      <c r="B128">
-        <v>10</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -4274,8 +4530,10 @@
           <t>Maverick County</t>
         </is>
       </c>
-      <c r="B129">
-        <v>6</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4304,8 +4562,10 @@
           <t>McCulloch County</t>
         </is>
       </c>
-      <c r="B130">
-        <v>2</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4334,8 +4594,10 @@
           <t>McLennan County</t>
         </is>
       </c>
-      <c r="B131">
-        <v>60</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4364,8 +4626,10 @@
           <t>McMullen County</t>
         </is>
       </c>
-      <c r="B132">
-        <v>2</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4394,8 +4658,10 @@
           <t>Medina County</t>
         </is>
       </c>
-      <c r="B133">
-        <v>4</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4424,8 +4690,10 @@
           <t>Midland County</t>
         </is>
       </c>
-      <c r="B134">
-        <v>63</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4454,8 +4722,10 @@
           <t>Milam County</t>
         </is>
       </c>
-      <c r="B135">
-        <v>2</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4484,8 +4754,10 @@
           <t>Mills County</t>
         </is>
       </c>
-      <c r="B136">
-        <v>1</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4514,8 +4786,10 @@
           <t>Montague County</t>
         </is>
       </c>
-      <c r="B137">
-        <v>6</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4544,8 +4818,10 @@
           <t>Montgomery County</t>
         </is>
       </c>
-      <c r="B138">
-        <v>65</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4574,8 +4850,10 @@
           <t>Moore County</t>
         </is>
       </c>
-      <c r="B139">
-        <v>2</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4604,8 +4882,10 @@
           <t>Motley County</t>
         </is>
       </c>
-      <c r="B140">
-        <v>2</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4634,8 +4914,10 @@
           <t>Nacogdoches County</t>
         </is>
       </c>
-      <c r="B141">
-        <v>13</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4664,8 +4946,10 @@
           <t>Navarro County</t>
         </is>
       </c>
-      <c r="B142">
-        <v>6</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4694,8 +4978,10 @@
           <t>Newton County</t>
         </is>
       </c>
-      <c r="B143">
-        <v>2</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4724,8 +5010,10 @@
           <t>Nolan County</t>
         </is>
       </c>
-      <c r="B144">
-        <v>2</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4754,8 +5042,10 @@
           <t>Nueces County</t>
         </is>
       </c>
-      <c r="B145">
-        <v>65</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4784,8 +5074,10 @@
           <t>Ochiltree County</t>
         </is>
       </c>
-      <c r="B146">
-        <v>3</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4814,8 +5106,10 @@
           <t>Oldham County</t>
         </is>
       </c>
-      <c r="B147">
-        <v>1</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4844,8 +5138,10 @@
           <t>Orange County</t>
         </is>
       </c>
-      <c r="B148">
-        <v>3</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4874,8 +5170,10 @@
           <t>Palo Pinto County</t>
         </is>
       </c>
-      <c r="B149">
-        <v>5</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4904,8 +5202,10 @@
           <t>Panola County</t>
         </is>
       </c>
-      <c r="B150">
-        <v>4</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4934,8 +5234,10 @@
           <t>Parker County</t>
         </is>
       </c>
-      <c r="B151">
-        <v>14</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4964,8 +5266,10 @@
           <t>Pecos County</t>
         </is>
       </c>
-      <c r="B152">
-        <v>6</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4994,8 +5298,10 @@
           <t>Polk County</t>
         </is>
       </c>
-      <c r="B153">
-        <v>7</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -5024,8 +5330,10 @@
           <t>Potter County</t>
         </is>
       </c>
-      <c r="B154">
-        <v>43</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -5054,8 +5362,10 @@
           <t>Presidio County</t>
         </is>
       </c>
-      <c r="B155">
-        <v>4</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -5084,8 +5394,10 @@
           <t>Rains County</t>
         </is>
       </c>
-      <c r="B156">
-        <v>2</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -5114,8 +5426,10 @@
           <t>Randall County</t>
         </is>
       </c>
-      <c r="B157">
-        <v>13</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -5144,8 +5458,10 @@
           <t>Rockwall County</t>
         </is>
       </c>
-      <c r="B158">
-        <v>9</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5174,8 +5490,10 @@
           <t>Runnels County</t>
         </is>
       </c>
-      <c r="B159">
-        <v>2</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -5204,8 +5522,10 @@
           <t>Rusk County</t>
         </is>
       </c>
-      <c r="B160">
-        <v>4</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -5234,8 +5554,10 @@
           <t>San Augustine County</t>
         </is>
       </c>
-      <c r="B161">
-        <v>1</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -5264,8 +5586,10 @@
           <t>San Jacinto County</t>
         </is>
       </c>
-      <c r="B162">
-        <v>2</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -5294,8 +5618,10 @@
           <t>San Patricio County</t>
         </is>
       </c>
-      <c r="B163">
-        <v>1</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -5324,8 +5650,10 @@
           <t>San Saba County</t>
         </is>
       </c>
-      <c r="B164">
-        <v>3</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -5354,8 +5682,10 @@
           <t>Schleicher County</t>
         </is>
       </c>
-      <c r="B165">
-        <v>2</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -5384,8 +5714,10 @@
           <t>Scurry County</t>
         </is>
       </c>
-      <c r="B166">
-        <v>2</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -5414,8 +5746,10 @@
           <t>Shelby County</t>
         </is>
       </c>
-      <c r="B167">
-        <v>4</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -5444,8 +5778,10 @@
           <t>Smith County</t>
         </is>
       </c>
-      <c r="B168">
-        <v>65</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -5474,8 +5810,10 @@
           <t>Somervell County</t>
         </is>
       </c>
-      <c r="B169">
-        <v>6</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -5504,8 +5842,10 @@
           <t>Starr County</t>
         </is>
       </c>
-      <c r="B170">
-        <v>2</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5534,8 +5874,10 @@
           <t>Stephens County</t>
         </is>
       </c>
-      <c r="B171">
-        <v>2</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -5564,8 +5906,10 @@
           <t>Stonewall County</t>
         </is>
       </c>
-      <c r="B172">
-        <v>1</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -5594,8 +5938,10 @@
           <t>Sutton County</t>
         </is>
       </c>
-      <c r="B173">
-        <v>2</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -5624,8 +5970,10 @@
           <t>Swisher County</t>
         </is>
       </c>
-      <c r="B174">
-        <v>3</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -5654,8 +6002,10 @@
           <t>Tarrant County</t>
         </is>
       </c>
-      <c r="B175">
-        <v>278</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -5684,8 +6034,10 @@
           <t>Taylor County</t>
         </is>
       </c>
-      <c r="B176">
-        <v>53</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -5714,8 +6066,10 @@
           <t>Throckmorton County</t>
         </is>
       </c>
-      <c r="B177">
-        <v>1</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -5744,8 +6098,10 @@
           <t>Titus County</t>
         </is>
       </c>
-      <c r="B178">
-        <v>5</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -5774,8 +6130,10 @@
           <t>Tom Green County</t>
         </is>
       </c>
-      <c r="B179">
-        <v>34</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -5804,8 +6162,10 @@
           <t>Travis County</t>
         </is>
       </c>
-      <c r="B180">
-        <v>459</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -5834,8 +6194,10 @@
           <t>Trinity County</t>
         </is>
       </c>
-      <c r="B181">
-        <v>3</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5864,8 +6226,10 @@
           <t>Tyler County</t>
         </is>
       </c>
-      <c r="B182">
-        <v>2</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5894,8 +6258,10 @@
           <t>Upshur County</t>
         </is>
       </c>
-      <c r="B183">
-        <v>1</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5924,8 +6290,10 @@
           <t>Uvalde County</t>
         </is>
       </c>
-      <c r="B184">
-        <v>6</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5954,8 +6322,10 @@
           <t>Val Verde County</t>
         </is>
       </c>
-      <c r="B185">
-        <v>8</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5984,8 +6354,10 @@
           <t>Van Zandt County</t>
         </is>
       </c>
-      <c r="B186">
-        <v>6</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -6014,8 +6386,10 @@
           <t>Victoria County</t>
         </is>
       </c>
-      <c r="B187">
-        <v>21</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -6044,8 +6418,10 @@
           <t>Walker County</t>
         </is>
       </c>
-      <c r="B188">
-        <v>15</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -6074,8 +6450,10 @@
           <t>Waller County</t>
         </is>
       </c>
-      <c r="B189">
-        <v>5</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -6104,8 +6482,10 @@
           <t>Ward County</t>
         </is>
       </c>
-      <c r="B190">
-        <v>3</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -6134,8 +6514,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B191">
-        <v>12</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -6164,8 +6546,10 @@
           <t>Webb County</t>
         </is>
       </c>
-      <c r="B192">
-        <v>31</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -6194,8 +6578,10 @@
           <t>Wharton County</t>
         </is>
       </c>
-      <c r="B193">
-        <v>15</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -6224,8 +6610,10 @@
           <t>Wheeler County</t>
         </is>
       </c>
-      <c r="B194">
-        <v>2</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -6254,8 +6642,10 @@
           <t>Wichita County</t>
         </is>
       </c>
-      <c r="B195">
-        <v>39</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -6284,8 +6674,10 @@
           <t>Wilbarger County</t>
         </is>
       </c>
-      <c r="B196">
-        <v>3</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -6314,8 +6706,10 @@
           <t>Williamson County</t>
         </is>
       </c>
-      <c r="B197">
-        <v>70</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -6344,8 +6738,10 @@
           <t>Winkler County</t>
         </is>
       </c>
-      <c r="B198">
-        <v>1</v>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -6374,8 +6770,10 @@
           <t>Wise County</t>
         </is>
       </c>
-      <c r="B199">
-        <v>9</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -6404,8 +6802,10 @@
           <t>Wood County</t>
         </is>
       </c>
-      <c r="B200">
-        <v>10</v>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -6434,8 +6834,10 @@
           <t>Young County</t>
         </is>
       </c>
-      <c r="B201">
-        <v>8</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -6464,8 +6866,10 @@
           <t>Zapata County</t>
         </is>
       </c>
-      <c r="B202">
-        <v>2</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -6494,8 +6898,10 @@
           <t>Zavala County</t>
         </is>
       </c>
-      <c r="B203">
-        <v>1</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -6524,27 +6930,29 @@
           <t>Refugio County</t>
         </is>
       </c>
-      <c r="B204">
-        <v>0</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6554,27 +6962,29 @@
           <t>Jim Hogg County</t>
         </is>
       </c>
-      <c r="B205">
-        <v>0</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6584,27 +6994,29 @@
           <t>Kinney County</t>
         </is>
       </c>
-      <c r="B206">
-        <v>0</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6614,27 +7026,29 @@
           <t>Reagan County</t>
         </is>
       </c>
-      <c r="B207">
-        <v>0</v>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6644,27 +7058,29 @@
           <t>Crane County</t>
         </is>
       </c>
-      <c r="B208">
-        <v>0</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6674,27 +7090,29 @@
           <t>Lynn County</t>
         </is>
       </c>
-      <c r="B209">
-        <v>0</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6704,27 +7122,29 @@
           <t>Sabine County</t>
         </is>
       </c>
-      <c r="B210">
-        <v>0</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6734,27 +7154,29 @@
           <t>Upton County</t>
         </is>
       </c>
-      <c r="B211">
-        <v>0</v>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6764,27 +7186,29 @@
           <t>Shackelford County</t>
         </is>
       </c>
-      <c r="B212">
-        <v>0</v>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6794,27 +7218,29 @@
           <t>Parmer County</t>
         </is>
       </c>
-      <c r="B213">
-        <v>0</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6824,27 +7250,29 @@
           <t>Terry County</t>
         </is>
       </c>
-      <c r="B214">
-        <v>0</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6854,27 +7282,29 @@
           <t>Real County</t>
         </is>
       </c>
-      <c r="B215">
-        <v>0</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6884,27 +7314,29 @@
           <t>Falls County</t>
         </is>
       </c>
-      <c r="B216">
-        <v>0</v>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6914,27 +7346,29 @@
           <t>Willacy County</t>
         </is>
       </c>
-      <c r="B217">
-        <v>0</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6944,27 +7378,29 @@
           <t>Sterling County</t>
         </is>
       </c>
-      <c r="B218">
-        <v>0</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6974,27 +7410,29 @@
           <t>Lipscomb County</t>
         </is>
       </c>
-      <c r="B219">
-        <v>0</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7004,27 +7442,29 @@
           <t>Collingsworth County</t>
         </is>
       </c>
-      <c r="B220">
-        <v>0</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7034,27 +7474,29 @@
           <t>Glasscock County</t>
         </is>
       </c>
-      <c r="B221">
-        <v>0</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7064,27 +7506,29 @@
           <t>Hudspeth County</t>
         </is>
       </c>
-      <c r="B222">
-        <v>0</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7094,27 +7538,29 @@
           <t>Cochran County</t>
         </is>
       </c>
-      <c r="B223">
-        <v>0</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7124,27 +7570,29 @@
           <t>Irion County</t>
         </is>
       </c>
-      <c r="B224">
-        <v>0</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7154,27 +7602,29 @@
           <t>Coke County</t>
         </is>
       </c>
-      <c r="B225">
-        <v>0</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7184,27 +7634,29 @@
           <t>Cottle County</t>
         </is>
       </c>
-      <c r="B226">
-        <v>0</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7214,27 +7666,29 @@
           <t>Reeves County</t>
         </is>
       </c>
-      <c r="B227">
-        <v>0</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7244,27 +7698,29 @@
           <t>Hansford County</t>
         </is>
       </c>
-      <c r="B228">
-        <v>0</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7274,27 +7730,29 @@
           <t>Red River County</t>
         </is>
       </c>
-      <c r="B229">
-        <v>0</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7304,27 +7762,29 @@
           <t>Live Oak County</t>
         </is>
       </c>
-      <c r="B230">
-        <v>0</v>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7334,27 +7794,29 @@
           <t>Bailey County</t>
         </is>
       </c>
-      <c r="B231">
-        <v>0</v>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7364,27 +7826,29 @@
           <t>Culberson County</t>
         </is>
       </c>
-      <c r="B232">
-        <v>0</v>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7394,27 +7858,29 @@
           <t>Loving County</t>
         </is>
       </c>
-      <c r="B233">
-        <v>0</v>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7424,27 +7890,29 @@
           <t>Dickens County</t>
         </is>
       </c>
-      <c r="B234">
-        <v>0</v>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7454,27 +7922,29 @@
           <t>Yoakum County</t>
         </is>
       </c>
-      <c r="B235">
-        <v>0</v>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7484,27 +7954,29 @@
           <t>Kenedy County</t>
         </is>
       </c>
-      <c r="B236">
-        <v>0</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -7514,27 +7986,61 @@
           <t>Borden County</t>
         </is>
       </c>
-      <c r="B237">
-        <v>0</v>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>4,750</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>$17,830,022,161</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>9.58%</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>-10.73%</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>65.05%</t>
         </is>
       </c>
     </row>
@@ -7589,8 +8095,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>153</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -7619,8 +8127,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>141</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -7649,8 +8159,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>164</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -7679,8 +8191,10 @@
           <t>Congressional District 12</t>
         </is>
       </c>
-      <c r="B5">
-        <v>135</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -7709,8 +8223,10 @@
           <t>Congressional District 13</t>
         </is>
       </c>
-      <c r="B6">
-        <v>181</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -7739,8 +8255,10 @@
           <t>Congressional District 14</t>
         </is>
       </c>
-      <c r="B7">
-        <v>120</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -7769,8 +8287,10 @@
           <t>Congressional District 15</t>
         </is>
       </c>
-      <c r="B8">
-        <v>66</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -7799,8 +8319,10 @@
           <t>Congressional District 16</t>
         </is>
       </c>
-      <c r="B9">
-        <v>96</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -7829,8 +8351,10 @@
           <t>Congressional District 17</t>
         </is>
       </c>
-      <c r="B10">
-        <v>134</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -7859,8 +8383,10 @@
           <t>Congressional District 18</t>
         </is>
       </c>
-      <c r="B11">
-        <v>162</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -7889,8 +8415,10 @@
           <t>Congressional District 19</t>
         </is>
       </c>
-      <c r="B12">
-        <v>174</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -7919,8 +8447,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B13">
-        <v>62</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -7949,8 +8479,10 @@
           <t>Congressional District 20</t>
         </is>
       </c>
-      <c r="B14">
-        <v>99</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -7979,8 +8511,10 @@
           <t>Congressional District 21</t>
         </is>
       </c>
-      <c r="B15">
-        <v>209</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -8009,8 +8543,10 @@
           <t>Congressional District 22</t>
         </is>
       </c>
-      <c r="B16">
-        <v>77</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -8039,8 +8575,10 @@
           <t>Congressional District 23</t>
         </is>
       </c>
-      <c r="B17">
-        <v>91</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -8069,8 +8607,10 @@
           <t>Congressional District 24</t>
         </is>
       </c>
-      <c r="B18">
-        <v>126</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -8099,8 +8639,10 @@
           <t>Congressional District 25</t>
         </is>
       </c>
-      <c r="B19">
-        <v>115</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -8129,8 +8671,10 @@
           <t>Congressional District 26</t>
         </is>
       </c>
-      <c r="B20">
-        <v>69</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -8159,8 +8703,10 @@
           <t>Congressional District 27</t>
         </is>
       </c>
-      <c r="B21">
-        <v>121</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -8189,8 +8735,10 @@
           <t>Congressional District 28</t>
         </is>
       </c>
-      <c r="B22">
-        <v>79</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -8219,8 +8767,10 @@
           <t>Congressional District 29</t>
         </is>
       </c>
-      <c r="B23">
-        <v>56</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -8249,8 +8799,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B24">
-        <v>64</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -8279,8 +8831,10 @@
           <t>Congressional District 30</t>
         </is>
       </c>
-      <c r="B25">
-        <v>232</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -8309,8 +8863,10 @@
           <t>Congressional District 31</t>
         </is>
       </c>
-      <c r="B26">
-        <v>102</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -8339,8 +8895,10 @@
           <t>Congressional District 32</t>
         </is>
       </c>
-      <c r="B27">
-        <v>132</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -8369,8 +8927,10 @@
           <t>Congressional District 33</t>
         </is>
       </c>
-      <c r="B28">
-        <v>96</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -8399,8 +8959,10 @@
           <t>Congressional District 34</t>
         </is>
       </c>
-      <c r="B29">
-        <v>80</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -8429,8 +8991,10 @@
           <t>Congressional District 35</t>
         </is>
       </c>
-      <c r="B30">
-        <v>244</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -8459,8 +9023,10 @@
           <t>Congressional District 36</t>
         </is>
       </c>
-      <c r="B31">
-        <v>87</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -8489,8 +9055,10 @@
           <t>Congressional District 37</t>
         </is>
       </c>
-      <c r="B32">
-        <v>336</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -8519,8 +9087,10 @@
           <t>Congressional District 38</t>
         </is>
       </c>
-      <c r="B33">
-        <v>129</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -8549,8 +9119,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B34">
-        <v>107</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -8579,8 +9151,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B35">
-        <v>58</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -8609,8 +9183,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B36">
-        <v>81</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -8639,8 +9215,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B37">
-        <v>198</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -8669,8 +9247,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B38">
-        <v>60</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -8699,8 +9279,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B39">
-        <v>114</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8729,8 +9311,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B40">
-        <v>4750</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4,750</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8804,8 +9388,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1524</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,524</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -8834,8 +9420,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1262</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,262</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -8864,8 +9452,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>794</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -8894,8 +9484,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>339</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -8924,8 +9516,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>621</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -8954,8 +9548,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>210</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -8984,8 +9580,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>4750</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4,750</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -9059,8 +9657,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>451</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -9089,8 +9689,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>541</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -9119,8 +9721,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>184</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -9149,8 +9753,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>417</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -9179,8 +9785,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>60</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -9209,8 +9817,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1452</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1,452</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -9239,8 +9849,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>73</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -9269,8 +9881,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>5</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -9299,8 +9913,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>362</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -9329,8 +9945,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>237</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -9359,8 +9977,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>919</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -9389,8 +10009,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>49</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -9419,8 +10041,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>4750</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4,750</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/texas_overview.xlsx
+++ b/data/processed/state_overviews/texas_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>65.05%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>4,750</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$17,830,022,161</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.58%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.05%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.05%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>4,750</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$17,830,022,161</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.58%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.05%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$1,424,785</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.79%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.61%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$352,924</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>-9.39%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-92.19%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>82.76%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$63,251,395</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4.01%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-24.53%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>82.76%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,030,123</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>21.65%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-9.51%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$231,000</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>72.65%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-12.62%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$45,242</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>15.64%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>10.03%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$8,687,367</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>11.65%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-47.65%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$1,051,671</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>39.84%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-22.29%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$1,286,750</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>22.70%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>10.26%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$9,876,994</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-26.75%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$18,200</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>-5.37%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-12.50%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$6,845,848</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>5.33%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-65.16%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>64.15%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$98,789,692</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>12.22%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-16.64%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>64.15%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>73.39%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>357</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$4,783,523,131</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>5.76%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-19.78%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>73.39%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$439,115</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>48.32%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-44.96%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$845,109</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>12.57%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-13.08%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>88.24%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$32,800,985</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>6.17%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-19.76%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>88.24%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>84.31%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$34,906,967</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-21.73%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>84.31%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>58.70%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$57,704,215</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>13.38%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-6.94%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>58.70%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$5,083,508</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>10.72%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-35.80%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$26,904</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>28.00%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-2.95%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$5,234,689</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>9.85%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-4.41%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$28,500</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>38.93%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>34.02%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$3,602,535</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>16.31%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-30.07%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$98,523</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>10.65%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>4.39%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$485,611</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>-1.62%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-41.07%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$75,107</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>4.53%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-5.14%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>70.37%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$130,843,660</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>5.25%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-22.12%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>70.37%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$17,764</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>12.75%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-12.29%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$118,356</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>3.26%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-25.30%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$12,985,806</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2.00%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-97.05%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$625,992</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>-16.51%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-77.65%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$14,862,183</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>15.70%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-54.38%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$1,814,944</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>-3.24%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-13.21%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$104,249</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>22.51%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-20.38%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$956,437</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>7.48%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-8.46%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$10,601,878</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>8.33%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-52.29%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$111,876,906</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>10.08%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-4.48%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$345,540</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2.25%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-47.64%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>51.22%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$20,701,081</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>17.80%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-2.02%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>51.22%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$3,226,863</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>24.34%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-6.26%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$55,033</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>25.65%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-12.54%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$7,319,360</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>21.57%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-2.07%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$161,742</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>12.46%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-24.03%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$162,362</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>-44.21%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-114.14%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$680,607</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>32.92%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-2.14%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>58.77%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>519</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$1,809,180,754</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>9.79%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-5.95%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>58.77%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$33,661,867</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1.44%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-49.72%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$180,095</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>5.99%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-81.37%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$433,263</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>14.02%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-55.64%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>68.35%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$102,052,342</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>9.55%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-10.47%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>68.35%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$1,015,951</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>8.85%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-54.78%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$85,647</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>9.06%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-20.84%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$223,525</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>15.70%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-24.37%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$21,965,966</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>10.24%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-21.56%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$21,932</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>-4.60%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-9.30%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>76.53%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>98</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$319,744,787</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>4.33%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-33.47%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>76.53%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$10,977,212</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>7.23%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-26.42%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$2,856,190</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>5.39%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-55.78%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$990,905</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>-14.84%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-39.79%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$4,466,106</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>27.94%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-4.80%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$560,788</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>24.50%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-6.42%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$822,622</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>27.63%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-19.21%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$463,290</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>29.78%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-30.70%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>72.22%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$44,451,568</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>9.58%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-13.18%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>72.22%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$15,500</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>45.64%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>44.70%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$856,881</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>-4.50%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>-26.49%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>$3,539,931</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>0.43%</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>-10.74%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2708,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>$384,590</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>-75.06%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>56.14%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>$50,853,142</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>13.50%</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>-2.80%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>56.14%</t>
         </is>
       </c>
     </row>
@@ -2772,27 +2772,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>$397,176</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>5.04%</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>-46.33%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2804,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>45.45%</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>$11,147,213</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>13.83%</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>3.76%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>45.45%</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>$406,343</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>-4.29%</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>-14.93%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2868,27 +2868,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>$7,187,357</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>4.70%</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>-33.95%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2900,27 +2900,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>$1,848,772</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>10.26%</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>-43.99%</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2932,27 +2932,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>52.38%</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>$9,981,742</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>13.36%</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>-2.18%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>52.38%</t>
         </is>
       </c>
     </row>
@@ -2964,27 +2964,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>72.22%</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>$27,982,464</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>8.83%</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>-14.63%</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>72.22%</t>
         </is>
       </c>
     </row>
@@ -2996,27 +2996,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>$857,309</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>-10.67%</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>-67.04%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3028,27 +3028,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>78.95%</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>$10,742,728</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>5.15%</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>-13.15%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>78.95%</t>
         </is>
       </c>
     </row>
@@ -3060,27 +3060,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>90.91%</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>$37,760,031</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>5.00%</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>-18.92%</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>90.91%</t>
         </is>
       </c>
     </row>
@@ -3092,27 +3092,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>$146,625</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>9.77%</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>-25.80%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3124,27 +3124,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>$397,735</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>32.72%</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>8.43%</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>59.64%</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>716</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>$4,236,421,480</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>10.28%</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>-5.62%</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>59.64%</t>
         </is>
       </c>
     </row>
@@ -3188,27 +3188,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>$21,916,863</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>9.15%</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>-8.40%</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
@@ -3220,27 +3220,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>$119,874</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>6.99%</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>-60.34%</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3252,27 +3252,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>$201,700</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>10.23%</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>-12.16%</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3284,27 +3284,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>56.76%</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>$31,593,172</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>11.17%</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>-11.85%</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>56.76%</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>$540,670</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>21.43%</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>-19.89%</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3348,27 +3348,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>$2,375,373</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>15.36%</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>-44.65%</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -3380,27 +3380,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>72.46%</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>$1,291,081,983</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>5.82%</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>-23.78%</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>72.46%</t>
         </is>
       </c>
     </row>
@@ -3412,27 +3412,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>$293,400</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>21.65%</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>-31.72%</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3444,27 +3444,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>$67,368,261</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>3.48%</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>-32.38%</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3476,27 +3476,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>$4,598,381</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>12.18%</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>-30.39%</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -3508,27 +3508,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>$273,637</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>0.30%</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>-41.66%</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3540,27 +3540,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>$316,220</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1.67%</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>0.04%</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -3572,27 +3572,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>$615,399</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>53.53%</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>20.31%</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3604,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>92.31%</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>$13,129,218</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>0.36%</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>-47.29%</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>92.31%</t>
         </is>
       </c>
     </row>
@@ -3636,27 +3636,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>$996,063</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>6.83%</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>-45.78%</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -3668,27 +3668,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>$249,861</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1.61%</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>-29.09%</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3700,27 +3700,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>$454,811</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>83.73%</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>-13.72%</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3732,27 +3732,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>$465,194</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>33.51%</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>-21.18%</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3764,27 +3764,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>$33,082</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>36.68%</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>28.90%</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3796,27 +3796,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>75.86%</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>$108,909,628</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>5.96%</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>-31.84%</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>75.86%</t>
         </is>
       </c>
     </row>
@@ -3828,27 +3828,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>$49,697,436</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>3.38%</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>-51.65%</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3860,27 +3860,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>65.22%</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>$25,662,405</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>9.90%</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>-13.13%</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>65.22%</t>
         </is>
       </c>
     </row>
@@ -3892,27 +3892,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>$56,189</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>35.09%</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>-5.46%</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>$4,551,406</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>8.24%</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>-25.00%</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -3956,27 +3956,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>$2,775,639</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>14.85%</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>3.45%</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3988,27 +3988,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>60.87%</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>$20,414,112</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>18.51%</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>-8.06%</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>60.87%</t>
         </is>
       </c>
     </row>
@@ -4020,27 +4020,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>$125,423</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>41.05%</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>14.37%</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -4052,27 +4052,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>$906,549</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>8.06%</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>-77.27%</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4084,27 +4084,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>$6,091,409</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>6.94%</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>-63.81%</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4116,27 +4116,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>$3,147,642</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>20.64%</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>-25.37%</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -4148,27 +4148,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>$86,367</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>5.50%</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>-10.45%</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4180,27 +4180,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>$345,296</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>-26.20%</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>-32.02%</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4212,27 +4212,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>$648,018</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>3.43%</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>-0.31%</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -4244,27 +4244,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>$5,388,878</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>24.74%</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>-2.10%</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -4276,27 +4276,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>$1,052,689</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>0.73%</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>-34.46%</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4308,27 +4308,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>$6,229,481</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>-13.55%</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>-46.41%</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4340,27 +4340,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>$3,980</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>98.50%</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>97.31%</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -4372,27 +4372,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>$972,836</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1.65%</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>-62.27%</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4404,27 +4404,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>69.57%</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>$110,084,649</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>8.35%</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>-11.99%</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>69.57%</t>
         </is>
       </c>
     </row>
@@ -4436,27 +4436,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>$37,889</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>37.66%</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>34.51%</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -4468,27 +4468,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>$136,561</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>16.75%</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>10.91%</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -4500,27 +4500,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>$465,300</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>84.25%</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>47.44%</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -4532,27 +4532,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>$190,415</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>7.64%</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>-66.47%</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4564,27 +4564,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>$7,731,875</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>16.72%</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>-39.54%</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -4596,27 +4596,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>$13,831,834</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>3.72%</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>-48.36%</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4628,27 +4628,27 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>$605,573</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>-6.37%</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>-96.40%</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4660,27 +4660,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>65.00%</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>$138,100,637</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>9.74%</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>-17.28%</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>65.00%</t>
         </is>
       </c>
     </row>
@@ -4692,27 +4692,27 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>$475,800</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>13.86%</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>-28.89%</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -4724,27 +4724,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>$1,018,423</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>-8.34%</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>-63.74%</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4756,27 +4756,27 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
+          <t>60.32%</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>$50,866,818</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>12.99%</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>-6.81%</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>60.32%</t>
         </is>
       </c>
     </row>
@@ -4788,27 +4788,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>$131,167</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>8.09%</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>-5.30%</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4820,27 +4820,27 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>$10,700</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>-39.06%</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>-50.91%</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4852,27 +4852,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>$700,589</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>9.33%</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>-39.12%</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -4884,27 +4884,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>55.38%</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>$345,011,663</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>-2.39%</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>55.38%</t>
         </is>
       </c>
     </row>
@@ -4916,27 +4916,27 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>$128,958</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2.58%</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>-22.54%</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -4948,27 +4948,27 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>$18,400</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>-62.76%</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>-71.59%</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -4980,27 +4980,27 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>$10,289,199</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>8.85%</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>-55.98%</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -5012,27 +5012,27 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>$4,798,179</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>4.70%</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>-5.98%</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -5044,27 +5044,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>$172,826</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>17.59%</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>-31.69%</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -5076,27 +5076,27 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>$353,010</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>20.86%</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>-15.23%</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -5108,27 +5108,27 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>61.54%</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>$96,178,783</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>12.20%</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>-8.96%</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>61.54%</t>
         </is>
       </c>
     </row>
@@ -5140,27 +5140,27 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>$884,193</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>9.81%</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>-30.25%</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -5172,27 +5172,27 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>$6,759</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>-24.40%</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>-25.66%</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5204,27 +5204,27 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>$452,051</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>3.37%</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>-5.16%</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5236,27 +5236,27 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>$852,078</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>15.31%</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>-37.04%</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -5268,27 +5268,27 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>$661,040</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2.20%</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>-63.33%</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5300,27 +5300,27 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>$8,863,390</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>11.67%</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>-3.44%</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -5332,27 +5332,27 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>$2,797,650</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>-3.06%</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>-9.96%</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -5364,27 +5364,27 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>$4,021,640</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>13.87%</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>-0.89%</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -5396,27 +5396,27 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
+          <t>65.12%</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>$47,711,876</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>7.05%</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>-11.08%</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>65.12%</t>
         </is>
       </c>
     </row>
@@ -5428,27 +5428,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>$3,684,222</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>-7.68%</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>-41.23%</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -5460,27 +5460,27 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>$379,994</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>6.71%</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>-45.08%</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5492,27 +5492,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
+          <t>61.54%</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>$12,984,397</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>10.66%</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>-3.46%</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>61.54%</t>
         </is>
       </c>
     </row>
@@ -5524,27 +5524,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>$7,285,114</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>-1.94%</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -5556,27 +5556,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>$52,772</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>20.82%</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>6.62%</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -5588,27 +5588,27 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>$5,811,503</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>-3.89%</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>-83.15%</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5620,27 +5620,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>$505,091</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>-33.34%</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>-39.59%</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5652,27 +5652,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>$226,427</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>-21.52%</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>-58.97%</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5684,27 +5684,27 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>$180,967</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>20.17%</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>8.64%</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -5716,27 +5716,27 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>$34,077,154</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>-2.10%</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>-96.89%</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5748,27 +5748,27 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>$1,988,078</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>44.73%</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>-35.04%</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5780,27 +5780,27 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>$2,405,634</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>12.91%</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>-61.19%</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5812,27 +5812,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>$14,169,975</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>11.83%</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>-14.27%</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5844,27 +5844,27 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>$74,488,766</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>14.64%</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>-5.60%</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -5876,27 +5876,27 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>$3,157,721</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>16.85%</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>-30.13%</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -5908,27 +5908,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>$193,140</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>-4.42%</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>-92.86%</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -5940,27 +5940,27 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>$340,200</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>81.92%</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>26.99%</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -5972,27 +5972,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>$3,113,169</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>13.30%</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>-84.51%</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6004,27 +6004,27 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>$104,467</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>33.36%</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>-17.25%</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -6036,27 +6036,27 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>$2,842,568</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>-2.26%</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>-47.55%</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6068,27 +6068,27 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
+          <t>58.99%</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
           <t>278</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>$527,654,417</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>9.43%</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>-5.85%</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>58.99%</t>
         </is>
       </c>
     </row>
@@ -6100,27 +6100,27 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
+          <t>56.60%</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>$77,560,933</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>11.20%</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>-4.83%</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>56.60%</t>
         </is>
       </c>
     </row>
@@ -6132,27 +6132,27 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>$25,030</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>-35.69%</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>-42.54%</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6164,27 +6164,27 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>$5,170,519</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>17.46%</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>-49.41%</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -6196,27 +6196,27 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
+          <t>61.76%</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>$71,570,827</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>10.93%</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>-10.58%</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>61.76%</t>
         </is>
       </c>
     </row>
@@ -6228,27 +6228,27 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
+          <t>63.62%</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
           <t>459</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>$1,961,820,192</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>11.11%</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>-8.98%</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>63.62%</t>
         </is>
       </c>
     </row>
@@ -6260,27 +6260,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>$186,364</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>1.70%</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>-24.93%</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6292,27 +6292,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>$102,619</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>16.41%</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>6.10%</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -6324,27 +6324,27 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>$62,932</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>1.11%</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>-6.81%</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6356,27 +6356,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>$906,288</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>18.02%</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>-18.13%</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -6388,27 +6388,27 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>$3,588,692</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>-4.58%</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>-47.32%</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6420,27 +6420,27 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>$504,000</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>7.05%</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>-3.12%</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -6452,27 +6452,27 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
+          <t>76.19%</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>$18,028,922</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>4.17%</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>-12.09%</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>76.19%</t>
         </is>
       </c>
     </row>
@@ -6484,27 +6484,27 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>86.67%</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>$11,115,029</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2.10%</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>-21.73%</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>86.67%</t>
         </is>
       </c>
     </row>
@@ -6516,27 +6516,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>$3,292,603</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>-42.77%</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -6548,27 +6548,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>$1,251,160</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>3.81%</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>-57.63%</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6580,27 +6580,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>$1,581,789</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>6.53%</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>-4.58%</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -6612,27 +6612,27 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
+          <t>87.10%</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>$97,854,216</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>3.99%</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>-55.49%</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>87.10%</t>
         </is>
       </c>
     </row>
@@ -6644,27 +6644,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
+          <t>93.33%</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>$2,035,665</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>3.23%</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>-34.65%</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>93.33%</t>
         </is>
       </c>
     </row>
@@ -6676,27 +6676,27 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>$62,693</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>-35.60%</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>-86.01%</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6708,27 +6708,27 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
+          <t>74.36%</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>$44,468,253</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>6.46%</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>-15.25%</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>74.36%</t>
         </is>
       </c>
     </row>
@@ -6740,27 +6740,27 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>$410,838</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>8.07%</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>-7.95%</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6772,27 +6772,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>$102,487,054</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>14.15%</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>-3.58%</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -6804,27 +6804,27 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>$2,136</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>65.72%</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>64.31%</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -6836,27 +6836,27 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>$1,516,365</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>11.61%</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>-37.29%</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -6868,27 +6868,27 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>$11,225,539</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>21.15%</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>-29.95%</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -6900,27 +6900,27 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>$1,155,670</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>7.36%</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>-37.07%</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -6932,27 +6932,27 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>$110,342</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>1.54%</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>-12.29%</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6964,27 +6964,27 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>$4,711,763</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>16.23%</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>-53.14%</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -7009,27 +7009,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -7041,27 +7041,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -7073,1243 +7073,1243 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.05%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>4,750</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$17,830,022,161</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.58%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.05%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>67.32%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>153</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$196,662,837</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.52%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-14.55%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>67.32%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67.38%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$336,828,425</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>$93,665,632</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-7.18%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62.90%</t>
+          <t>-7.21%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64.63%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$23,229,053</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.44%</t>
+          <t>$219,603,136</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-4.86%</t>
+          <t>10.92%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>60.94%</t>
+          <t>-12.34%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$126,670,357</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.56%</t>
+          <t>$251,673,059</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-4.95%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>63.55%</t>
+          <t>-5.46%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72.38%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$52,058,678</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>$164,938,093</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-29.95%</t>
+          <t>9.33%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>67.24%</t>
+          <t>-15.64%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>72.50%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$180,765,546</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.23%</t>
+          <t>$134,941,467</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-11.78%</t>
+          <t>6.17%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>61.73%</t>
+          <t>-17.97%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>74.24%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$653,823,695</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.33%</t>
+          <t>$323,706,277</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-5.09%</t>
+          <t>5.49%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>57.07%</t>
+          <t>-31.28%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>76.04%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$39,873,732</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.20%</t>
+          <t>$318,558,961</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-3.05%</t>
+          <t>4.33%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>55.00%</t>
+          <t>-33.37%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>73.88%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2,104,677,285</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.58%</t>
+          <t>$251,828,848</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-12.99%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71.05%</t>
+          <t>-18.96%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>62.96%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$93,665,632</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>$446,435,225</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-7.21%</t>
+          <t>11.65%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>67.38%</t>
+          <t>-9.14%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>69.54%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$219,603,136</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.92%</t>
+          <t>$339,850,372</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-12.34%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>64.63%</t>
+          <t>-13.49%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>62.90%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$251,673,059</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>$336,828,425</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-5.46%</t>
+          <t>3.63%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>-7.18%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13th Congressional district</t>
+          <t>Congressional District 20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>77.78%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$164,938,093</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.33%</t>
+          <t>$996,588,496</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-15.64%</t>
+          <t>6.57%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>72.38%</t>
+          <t>-17.59%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14th Congressional district</t>
+          <t>Congressional District 21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>55.02%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$134,941,467</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.17%</t>
+          <t>$3,193,188,505</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-17.97%</t>
+          <t>13.11%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>72.50%</t>
+          <t>-2.53%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15th Congressional district</t>
+          <t>Congressional District 22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>75.32%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$323,706,277</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.49%</t>
+          <t>$44,065,633</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-31.28%</t>
+          <t>9.30%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>74.24%</t>
+          <t>-17.61%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16th Congressional district</t>
+          <t>Congressional District 23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>76.92%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$318,558,961</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.33%</t>
+          <t>$76,792,811</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-33.37%</t>
+          <t>6.07%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>76.04%</t>
+          <t>-32.23%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17th Congressional district</t>
+          <t>Congressional District 24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>51.59%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$251,828,848</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>$100,353,486</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-18.96%</t>
+          <t>11.95%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>73.88%</t>
+          <t>-1.29%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18th Congressional district</t>
+          <t>Congressional District 25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>66.96%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$446,435,225</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11.65%</t>
+          <t>$137,583,001</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-9.14%</t>
+          <t>8.89%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>62.96%</t>
+          <t>-13.91%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19th Congressional district</t>
+          <t>Congressional District 26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>62.32%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$339,850,372</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>$51,032,153</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-13.49%</t>
+          <t>9.55%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>69.54%</t>
+          <t>-9.11%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20th Congressional district</t>
+          <t>Congressional District 27</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>64.46%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$996,588,496</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.57%</t>
+          <t>$131,892,447</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-17.59%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>-9.91%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21st Congressional district</t>
+          <t>Congressional District 28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>81.01%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$3,193,188,505</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13.11%</t>
+          <t>$310,631,017</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-2.53%</t>
+          <t>3.95%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>55.02%</t>
+          <t>-47.17%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22nd Congressional district</t>
+          <t>Congressional District 29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>67.86%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$44,065,633</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>$739,520,112</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-17.61%</t>
+          <t>11.22%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>75.32%</t>
+          <t>-13.25%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>60.94%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$76,792,811</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.07%</t>
+          <t>$23,229,053</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-32.23%</t>
+          <t>10.44%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>-4.86%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24th Congressional district</t>
+          <t>Congressional District 30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>56.90%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$100,353,486</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11.95%</t>
+          <t>$917,530,444</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-1.29%</t>
+          <t>10.13%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>51.59%</t>
+          <t>-4.66%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25th Congressional district</t>
+          <t>Congressional District 31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>55.88%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$137,583,001</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8.89%</t>
+          <t>$145,766,438</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-13.91%</t>
+          <t>15.05%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>66.96%</t>
+          <t>-3.98%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26th Congressional district</t>
+          <t>Congressional District 32</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>62.88%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$51,032,153</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9.55%</t>
+          <t>$438,866,417</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-9.11%</t>
+          <t>8.84%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>62.32%</t>
+          <t>-8.52%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27th Congressional district</t>
+          <t>Congressional District 33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>62.50%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$131,892,447</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>$354,355,006</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-9.91%</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>64.46%</t>
+          <t>-9.17%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28th Congressional district</t>
+          <t>Congressional District 34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72.50%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$310,631,017</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.95%</t>
+          <t>$1,158,734,006</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-47.17%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>81.01%</t>
+          <t>-23.38%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>29th Congressional district</t>
+          <t>Congressional District 35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>74.59%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$739,520,112</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11.22%</t>
+          <t>$1,466,114,931</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-13.25%</t>
+          <t>6.58%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>67.86%</t>
+          <t>-21.63%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30th Congressional district</t>
+          <t>Congressional District 36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>60.92%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$917,530,444</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.13%</t>
+          <t>$110,156,476</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-4.66%</t>
+          <t>14.16%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>56.90%</t>
+          <t>-10.97%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>31st Congressional district</t>
+          <t>Congressional District 37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>60.42%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$145,766,438</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15.05%</t>
+          <t>$944,203,634</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-3.98%</t>
+          <t>12.33%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>55.88%</t>
+          <t>-7.01%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>32nd Congressional district</t>
+          <t>Congressional District 38</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>52.71%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$438,866,417</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8.84%</t>
+          <t>$252,856,470</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-8.52%</t>
+          <t>12.17%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>62.88%</t>
+          <t>-2.11%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>33rd Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>63.55%</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$354,355,006</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8.97%</t>
+          <t>$126,670,357</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-9.17%</t>
+          <t>10.56%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>-4.95%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>34th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>67.24%</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$1,158,734,006</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>$52,058,678</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-23.38%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>72.50%</t>
+          <t>-29.95%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>35th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>61.73%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$1,466,114,931</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6.58%</t>
+          <t>$180,765,546</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-21.63%</t>
+          <t>7.23%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>74.59%</t>
+          <t>-11.78%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>36th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>57.07%</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$110,156,476</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14.16%</t>
+          <t>$653,823,695</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-10.97%</t>
+          <t>10.33%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>60.92%</t>
+          <t>-5.09%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>37th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>55.00%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$944,203,634</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12.33%</t>
+          <t>$39,873,732</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-7.01%</t>
+          <t>11.20%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>60.42%</t>
+          <t>-3.05%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>71.05%</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$252,856,470</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12.17%</t>
+          <t>$2,104,677,285</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-2.11%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>52.71%</t>
+          <t>-12.99%</t>
         </is>
       </c>
     </row>
@@ -8334,187 +8334,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>64.11%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1,524</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$159,899,873</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.12%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-9.91%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>64.11%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>64.82%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$15,486,160,134</t>
+          <t>1,262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.43%</t>
+          <t>$1,026,196,952</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.63%</t>
+          <t>8.56%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-10.30%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,262</t>
+          <t>65.24%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,026,196,952</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.56%</t>
+          <t>$206,288,989</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-10.30%</t>
+          <t>9.90%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64.82%</t>
+          <t>-10.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>68.44%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$206,288,989</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.90%</t>
+          <t>$940,620,583</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-10.64%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>65.24%</t>
+          <t>-16.99%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$940,620,583</t>
+          <t>621</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>$15,486,160,134</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-16.99%</t>
+          <t>5.43%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68.44%</t>
+          <t>-10.63%</t>
         </is>
       </c>
     </row>
@@ -8526,27 +8526,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>62.38%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>210</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$10,855,630</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>19.45%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-15.04%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>62.38%</t>
         </is>
       </c>
     </row>
@@ -8558,27 +8558,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>65.05%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>4,750</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$17,830,022,161</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.58%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>65.05%</t>
         </is>
       </c>
     </row>
@@ -8603,155 +8603,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>63.86%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>451</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$336,658,850</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.28%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-9.92%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>63.86%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.43%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>541</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,701,797,497</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.69%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.34%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.43%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>47.83%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>184</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$196,323,062</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>13.92%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.40%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>47.83%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>66.43%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>417</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$815,881,671</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.22%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-15.45%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>66.43%</t>
         </is>
       </c>
     </row>
@@ -8763,251 +8763,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>48.33%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$582,181,925</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>5.41%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.27%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>48.33%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>69.28%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>1,452</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$3,619,903,273</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.26%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-14.95%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>69.28%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.68%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$11,837,747</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-1.60%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.68%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,530,432,115</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.68%</t>
+          <t>$431,713</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-13.06%</t>
+          <t>-0.27%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>63.26%</t>
+          <t>-32.40%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>63.26%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$113,324,324</t>
+          <t>362</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.50%</t>
+          <t>$1,530,432,115</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.65%</t>
+          <t>13.68%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>49.79%</t>
+          <t>-13.06%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>49.79%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$431,713</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.27%</t>
+          <t>$113,324,324</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-32.40%</t>
+          <t>12.50%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>0.65%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>69.10%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,062,509,250</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>$5,858,740,734</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-1.70%</t>
+          <t>8.51%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>51.02%</t>
+          <t>-14.92%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>51.02%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$5,858,740,734</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.51%</t>
+          <t>$1,062,509,250</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-14.92%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69.10%</t>
+          <t>-1.70%</t>
         </is>
       </c>
     </row>
@@ -9019,27 +9019,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>65.05%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>4,750</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$17,830,022,161</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.58%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>65.05%</t>
         </is>
       </c>
     </row>
